--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H2">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I2">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J2">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N2">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q2">
-        <v>1.273938269078222</v>
+        <v>28.890675655</v>
       </c>
       <c r="R2">
-        <v>11.465444421704</v>
+        <v>260.016080895</v>
       </c>
       <c r="S2">
-        <v>4.688445935950628E-05</v>
+        <v>0.001470293339930148</v>
       </c>
       <c r="T2">
-        <v>4.688445935950629E-05</v>
+        <v>0.001470293339930149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H3">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I3">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J3">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P3">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q3">
-        <v>303.83408077002</v>
+        <v>328.60961083494</v>
       </c>
       <c r="R3">
-        <v>2734.50672693018</v>
+        <v>2957.48649751446</v>
       </c>
       <c r="S3">
-        <v>0.01118193632898886</v>
+        <v>0.01672347604525589</v>
       </c>
       <c r="T3">
-        <v>0.01118193632898886</v>
+        <v>0.0167234760452559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H4">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I4">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J4">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N4">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q4">
-        <v>145.1972377897551</v>
+        <v>133.426808262012</v>
       </c>
       <c r="R4">
-        <v>1306.775140107796</v>
+        <v>1200.841274358108</v>
       </c>
       <c r="S4">
-        <v>0.005343660803275824</v>
+        <v>0.006790306668436175</v>
       </c>
       <c r="T4">
-        <v>0.005343660803275824</v>
+        <v>0.006790306668436176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H5">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I5">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J5">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N5">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O5">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P5">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q5">
-        <v>195.96666153388</v>
+        <v>275.1188722558841</v>
       </c>
       <c r="R5">
-        <v>1763.69995380492</v>
+        <v>2476.069850302956</v>
       </c>
       <c r="S5">
-        <v>0.007212116317968287</v>
+        <v>0.01400124560593007</v>
       </c>
       <c r="T5">
-        <v>0.007212116317968287</v>
+        <v>0.01400124560593007</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H6">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I6">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J6">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N6">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O6">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P6">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q6">
-        <v>39.92233088677666</v>
+        <v>49.18060380565</v>
       </c>
       <c r="R6">
-        <v>359.30097798099</v>
+        <v>442.62543425085</v>
       </c>
       <c r="S6">
-        <v>0.001469252431950386</v>
+        <v>0.00250288069038898</v>
       </c>
       <c r="T6">
-        <v>0.001469252431950386</v>
+        <v>0.002502880690388981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.183547333333333</v>
+        <v>8.850858000000001</v>
       </c>
       <c r="H7">
-        <v>24.550642</v>
+        <v>26.552574</v>
       </c>
       <c r="I7">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240135</v>
       </c>
       <c r="J7">
-        <v>0.03093917512191417</v>
+        <v>0.05442939716240137</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N7">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q7">
-        <v>154.4808857518629</v>
+        <v>254.289298442116</v>
       </c>
       <c r="R7">
-        <v>1390.327971766766</v>
+        <v>2288.603685979044</v>
       </c>
       <c r="S7">
-        <v>0.00568532478037131</v>
+        <v>0.01294119481246009</v>
       </c>
       <c r="T7">
-        <v>0.00568532478037131</v>
+        <v>0.01294119481246009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>117.701738</v>
       </c>
       <c r="I8">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J8">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N8">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q8">
-        <v>6.107569340761778</v>
+        <v>128.0660299294445</v>
       </c>
       <c r="R8">
-        <v>54.968124066856</v>
+        <v>1152.594269365</v>
       </c>
       <c r="S8">
-        <v>0.00022477548048659</v>
+        <v>0.006517487964805342</v>
       </c>
       <c r="T8">
-        <v>0.0002247754804865901</v>
+        <v>0.006517487964805345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>117.701738</v>
       </c>
       <c r="I9">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J9">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P9">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q9">
         <v>1456.65434615778</v>
@@ -1013,10 +1013,10 @@
         <v>13109.88911542002</v>
       </c>
       <c r="S9">
-        <v>0.05360891744205012</v>
+        <v>0.07413150212585738</v>
       </c>
       <c r="T9">
-        <v>0.05360891744205013</v>
+        <v>0.07413150212585741</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>117.701738</v>
       </c>
       <c r="I10">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J10">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N10">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q10">
-        <v>696.110808045405</v>
+        <v>591.4517827247774</v>
       </c>
       <c r="R10">
-        <v>6264.997272408645</v>
+        <v>5323.066044522997</v>
       </c>
       <c r="S10">
-        <v>0.02561880719160177</v>
+        <v>0.03009994045880175</v>
       </c>
       <c r="T10">
-        <v>0.02561880719160178</v>
+        <v>0.03009994045880176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>117.701738</v>
       </c>
       <c r="I11">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J11">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N11">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O11">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P11">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q11">
-        <v>939.51175095932</v>
+        <v>1219.541631674486</v>
       </c>
       <c r="R11">
-        <v>8455.605758633879</v>
+        <v>10975.87468507037</v>
       </c>
       <c r="S11">
-        <v>0.03457663654103334</v>
+        <v>0.06206445152861007</v>
       </c>
       <c r="T11">
-        <v>0.03457663654103335</v>
+        <v>0.06206445152861009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>117.701738</v>
       </c>
       <c r="I12">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J12">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N12">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O12">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P12">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q12">
-        <v>191.3973463661233</v>
+        <v>218.0068321743278</v>
       </c>
       <c r="R12">
-        <v>1722.57611729511</v>
+        <v>1962.06148956895</v>
       </c>
       <c r="S12">
-        <v>0.007043952854727267</v>
+        <v>0.01109472125999622</v>
       </c>
       <c r="T12">
-        <v>0.00704395285472727</v>
+        <v>0.01109472125999622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>117.701738</v>
       </c>
       <c r="I13">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509021</v>
       </c>
       <c r="J13">
-        <v>0.1483299167547496</v>
+        <v>0.2412735821509022</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N13">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q13">
-        <v>740.6188702019972</v>
+        <v>1127.208698540403</v>
       </c>
       <c r="R13">
-        <v>6665.569831817974</v>
+        <v>10144.87828686363</v>
       </c>
       <c r="S13">
-        <v>0.02725682724485052</v>
+        <v>0.05736547881283135</v>
       </c>
       <c r="T13">
-        <v>0.02725682724485052</v>
+        <v>0.05736547881283136</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H14">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I14">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J14">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N14">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q14">
-        <v>15.45839722926489</v>
+        <v>164.6120131325</v>
       </c>
       <c r="R14">
-        <v>139.125575063384</v>
+        <v>1481.5081181925</v>
       </c>
       <c r="S14">
-        <v>0.0005689118650803893</v>
+        <v>0.008377372321485393</v>
       </c>
       <c r="T14">
-        <v>0.0005689118650803896</v>
+        <v>0.008377372321485395</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H15">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I15">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J15">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P15">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q15">
-        <v>3686.825355933421</v>
+        <v>1872.33729734061</v>
       </c>
       <c r="R15">
-        <v>33181.42820340079</v>
+        <v>16851.03567606549</v>
       </c>
       <c r="S15">
-        <v>0.1356853921116049</v>
+        <v>0.09528628167982224</v>
       </c>
       <c r="T15">
-        <v>0.1356853921116049</v>
+        <v>0.09528628167982225</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H16">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I16">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J16">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N16">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q16">
-        <v>1761.872323664569</v>
+        <v>760.2333630453782</v>
       </c>
       <c r="R16">
-        <v>15856.85091298112</v>
+        <v>6842.100267408403</v>
       </c>
       <c r="S16">
-        <v>0.06484178500678853</v>
+        <v>0.03868950881683068</v>
       </c>
       <c r="T16">
-        <v>0.06484178500678853</v>
+        <v>0.03868950881683068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H17">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I17">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J17">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N17">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O17">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P17">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q17">
-        <v>2377.92565873348</v>
+        <v>1567.560134404346</v>
       </c>
       <c r="R17">
-        <v>21401.33092860132</v>
+        <v>14108.04120963912</v>
       </c>
       <c r="S17">
-        <v>0.08751425529235869</v>
+        <v>0.07977567756037716</v>
       </c>
       <c r="T17">
-        <v>0.08751425529235871</v>
+        <v>0.07977567756037718</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H18">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I18">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J18">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N18">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O18">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P18">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q18">
-        <v>484.4310467354767</v>
+        <v>280.219067777975</v>
       </c>
       <c r="R18">
-        <v>4359.879420619291</v>
+        <v>2521.971610001775</v>
       </c>
       <c r="S18">
-        <v>0.01782840524885588</v>
+        <v>0.01426080282771398</v>
       </c>
       <c r="T18">
-        <v>0.01782840524885588</v>
+        <v>0.01426080282771399</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>99.30192733333335</v>
+        <v>50.430027</v>
       </c>
       <c r="H19">
-        <v>297.905782</v>
+        <v>151.290081</v>
       </c>
       <c r="I19">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="J19">
-        <v>0.3754264006264597</v>
+        <v>0.3101254102702387</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N19">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q19">
-        <v>1874.52324358611</v>
+        <v>1448.878310582654</v>
       </c>
       <c r="R19">
-        <v>16870.70919227499</v>
+        <v>13039.90479524389</v>
       </c>
       <c r="S19">
-        <v>0.06898765110177132</v>
+        <v>0.07373576706400919</v>
       </c>
       <c r="T19">
-        <v>0.06898765110177134</v>
+        <v>0.07373576706400921</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H20">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I20">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J20">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N20">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q20">
-        <v>1.899148871700889</v>
+        <v>10.67377712555555</v>
       </c>
       <c r="R20">
-        <v>17.092339845308</v>
+        <v>96.06399413</v>
       </c>
       <c r="S20">
-        <v>6.989394247284779E-05</v>
+        <v>0.0005432058290020318</v>
       </c>
       <c r="T20">
-        <v>6.98939424728478E-05</v>
+        <v>0.000543205829002032</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H21">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I21">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J21">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P21">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q21">
-        <v>452.9467131057901</v>
+        <v>121.40615156436</v>
       </c>
       <c r="R21">
-        <v>4076.520417952111</v>
+        <v>1092.65536407924</v>
       </c>
       <c r="S21">
-        <v>0.01666969450411135</v>
+        <v>0.006178555953596601</v>
       </c>
       <c r="T21">
-        <v>0.01666969450411135</v>
+        <v>0.006178555953596603</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H22">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I22">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J22">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N22">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q22">
-        <v>216.4556768688825</v>
+        <v>49.29507467979467</v>
       </c>
       <c r="R22">
-        <v>1948.101091819942</v>
+        <v>443.655672118152</v>
       </c>
       <c r="S22">
-        <v>0.007966168873030704</v>
+        <v>0.002508706298826827</v>
       </c>
       <c r="T22">
-        <v>0.007966168873030704</v>
+        <v>0.002508706298826828</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H23">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I23">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J23">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N23">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O23">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P23">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q23">
-        <v>292.14120744826</v>
+        <v>101.6437815633182</v>
       </c>
       <c r="R23">
-        <v>2629.27086703434</v>
+        <v>914.7940340698641</v>
       </c>
       <c r="S23">
-        <v>0.01075160618085179</v>
+        <v>0.005172816892982476</v>
       </c>
       <c r="T23">
-        <v>0.01075160618085179</v>
+        <v>0.005172816892982478</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H24">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I24">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J24">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N24">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O24">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P24">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q24">
-        <v>59.51501065601166</v>
+        <v>18.16997325332222</v>
       </c>
       <c r="R24">
-        <v>535.635095904105</v>
+        <v>163.5297592799</v>
       </c>
       <c r="S24">
-        <v>0.002190317353761064</v>
+        <v>0.0009246994075213015</v>
       </c>
       <c r="T24">
-        <v>0.002190317353761065</v>
+        <v>0.0009246994075213018</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.19978633333333</v>
+        <v>3.269985333333333</v>
       </c>
       <c r="H25">
-        <v>36.599359</v>
+        <v>9.809956</v>
       </c>
       <c r="I25">
-        <v>0.04612319211248348</v>
+        <v>0.02010916121614733</v>
       </c>
       <c r="J25">
-        <v>0.04612319211248347</v>
+        <v>0.02010916121614734</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N25">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q25">
-        <v>230.2954601460286</v>
+        <v>93.94821115979288</v>
       </c>
       <c r="R25">
-        <v>2072.659141314257</v>
+        <v>845.533900438136</v>
       </c>
       <c r="S25">
-        <v>0.00847551125825572</v>
+        <v>0.004781176834218095</v>
       </c>
       <c r="T25">
-        <v>0.00847551125825572</v>
+        <v>0.004781176834218096</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H26">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I26">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J26">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N26">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q26">
-        <v>5.306125792563555</v>
+        <v>153.6604532475</v>
       </c>
       <c r="R26">
-        <v>47.755132133072</v>
+        <v>1382.9440792275</v>
       </c>
       <c r="S26">
-        <v>0.0001952801364997686</v>
+        <v>0.007820029677338025</v>
       </c>
       <c r="T26">
-        <v>0.0001952801364997686</v>
+        <v>0.007820029677338027</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H27">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I27">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J27">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P27">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q27">
-        <v>1265.51018347236</v>
+        <v>1747.77157673163</v>
       </c>
       <c r="R27">
-        <v>11389.59165125124</v>
+        <v>15729.94419058467</v>
       </c>
       <c r="S27">
-        <v>0.04657428244853838</v>
+        <v>0.08894693013325201</v>
       </c>
       <c r="T27">
-        <v>0.0465742824485384</v>
+        <v>0.08894693013325203</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H28">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I28">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J28">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N28">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q28">
-        <v>604.7662018997698</v>
+        <v>709.6553946241741</v>
       </c>
       <c r="R28">
-        <v>5442.895817097929</v>
+        <v>6386.898551617567</v>
       </c>
       <c r="S28">
-        <v>0.02225707249966579</v>
+        <v>0.0361155139748643</v>
       </c>
       <c r="T28">
-        <v>0.02225707249966579</v>
+        <v>0.03611551397486431</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H29">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I29">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J29">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N29">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O29">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P29">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q29">
-        <v>816.22774233784</v>
+        <v>1463.271095235318</v>
       </c>
       <c r="R29">
-        <v>7346.04968104056</v>
+        <v>13169.43985711786</v>
       </c>
       <c r="S29">
-        <v>0.03003944330947034</v>
+        <v>0.0744682392176744</v>
       </c>
       <c r="T29">
-        <v>0.03003944330947035</v>
+        <v>0.07446823921767441</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H30">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I30">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J30">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N30">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O30">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P30">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q30">
-        <v>166.2819264946467</v>
+        <v>261.576224869425</v>
       </c>
       <c r="R30">
-        <v>1496.53733845182</v>
+        <v>2354.186023824825</v>
       </c>
       <c r="S30">
-        <v>0.006119635789416718</v>
+        <v>0.01331203831652259</v>
       </c>
       <c r="T30">
-        <v>0.006119635789416719</v>
+        <v>0.0133120383165226</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.08558533333333</v>
+        <v>47.074941</v>
       </c>
       <c r="H31">
-        <v>102.256756</v>
+        <v>141.224823</v>
       </c>
       <c r="I31">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="J31">
-        <v>0.1288658635192859</v>
+        <v>0.2894929124482182</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N31">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q31">
-        <v>643.4338556601542</v>
+        <v>1352.485117385682</v>
       </c>
       <c r="R31">
-        <v>5790.904700941389</v>
+        <v>12172.36605647114</v>
       </c>
       <c r="S31">
-        <v>0.02368014933569487</v>
+        <v>0.06883016112856684</v>
       </c>
       <c r="T31">
-        <v>0.02368014933569488</v>
+        <v>0.06883016112856685</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H32">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I32">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J32">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N32">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P32">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q32">
-        <v>11.130393667484</v>
+        <v>44.88881347166667</v>
       </c>
       <c r="R32">
-        <v>100.173543007356</v>
+        <v>403.999321245</v>
       </c>
       <c r="S32">
-        <v>0.0004096293377983275</v>
+        <v>0.002284464519725965</v>
       </c>
       <c r="T32">
-        <v>0.0004096293377983276</v>
+        <v>0.002284464519725966</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H33">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I33">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J33">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>111.38229</v>
       </c>
       <c r="O33">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P33">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q33">
-        <v>2654.59717370403</v>
+        <v>510.57634310514</v>
       </c>
       <c r="R33">
-        <v>23891.37456333627</v>
+        <v>4595.18708794626</v>
       </c>
       <c r="S33">
-        <v>0.09769653391167953</v>
+        <v>0.02598405817011266</v>
       </c>
       <c r="T33">
-        <v>0.09769653391167955</v>
+        <v>0.02598405817011266</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H34">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I34">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J34">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N34">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P34">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q34">
-        <v>1268.587697895766</v>
+        <v>207.311562377972</v>
       </c>
       <c r="R34">
-        <v>11417.28928106189</v>
+        <v>1865.804061401748</v>
       </c>
       <c r="S34">
-        <v>0.0466875435094663</v>
+        <v>0.01055042163411964</v>
       </c>
       <c r="T34">
-        <v>0.04668754350946631</v>
+        <v>0.01055042163411965</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H35">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I35">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J35">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N35">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O35">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P35">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q35">
-        <v>1712.15995430682</v>
+        <v>427.4652447282707</v>
       </c>
       <c r="R35">
-        <v>15409.43958876138</v>
+        <v>3847.187202554437</v>
       </c>
       <c r="S35">
-        <v>0.06301223202342097</v>
+        <v>0.02175439958140319</v>
       </c>
       <c r="T35">
-        <v>0.06301223202342099</v>
+        <v>0.02175439958140319</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H36">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I36">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J36">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N36">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O36">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P36">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q36">
-        <v>348.801248599665</v>
+        <v>76.41423748681667</v>
       </c>
       <c r="R36">
-        <v>3139.211237396985</v>
+        <v>687.7281373813501</v>
       </c>
       <c r="S36">
-        <v>0.01283685274353895</v>
+        <v>0.003888844476825623</v>
       </c>
       <c r="T36">
-        <v>0.01283685274353896</v>
+        <v>0.003888844476825623</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>71.499621</v>
+        <v>13.751998</v>
       </c>
       <c r="H37">
-        <v>214.498863</v>
+        <v>41.255994</v>
       </c>
       <c r="I37">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209218</v>
       </c>
       <c r="J37">
-        <v>0.2703154518651071</v>
+        <v>0.08456953675209219</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N37">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P37">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q37">
-        <v>1349.698893780761</v>
+        <v>395.1013476430627</v>
       </c>
       <c r="R37">
-        <v>12147.29004402685</v>
+        <v>3555.912128787564</v>
       </c>
       <c r="S37">
-        <v>0.04967266033920296</v>
+        <v>0.0201073483699051</v>
       </c>
       <c r="T37">
-        <v>0.04967266033920297</v>
+        <v>0.0201073483699051</v>
       </c>
     </row>
   </sheetData>
